--- a/biology/Botanique/Bolax_gummifera/Bolax_gummifera.xlsx
+++ b/biology/Botanique/Bolax_gummifera/Bolax_gummifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolax gummifera est une espèce de plantes dicotylédones de la famille des Apiaceae (Ombellifères), originaire d'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'épithète spécifique « gummifera » est un terme latin qui signifie « qui produit de la gomme »[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'épithète spécifique « gummifera » est un terme latin qui signifie « qui produit de la gomme ».</t>
         </is>
       </c>
     </row>
@@ -541,10 +555,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolax gummifera est un arbrisseau vivace, cespiteux, qui forme des coussins très denses, surélevés, formés de branches très ramifiées, mesurant généralement 20 à 30 cm de diamètre, mais pouvant pour les plantes les plus âgées atteindre plusieurs mètres de diamètre. Les feuilles petites (de 2 à 5 mm de long), trifoliées à folioles ovales, obtus, aux pétioles larges et charnus, forment des rosettes à l'extrémité des ramifications. Les fleurs blanc-vert, petites, sont groupées en ombelles de 2 à 4 fleurs. Le fruit est composé de deux méricarpes à 4 ailes étroites[2],[3]. 
-C'est une espèce dioïque. La plante fleurit à la fin du printemps et de l'été[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolax gummifera est un arbrisseau vivace, cespiteux, qui forme des coussins très denses, surélevés, formés de branches très ramifiées, mesurant généralement 20 à 30 cm de diamètre, mais pouvant pour les plantes les plus âgées atteindre plusieurs mètres de diamètre. Les feuilles petites (de 2 à 5 mm de long), trifoliées à folioles ovales, obtus, aux pétioles larges et charnus, forment des rosettes à l'extrémité des ramifications. Les fleurs blanc-vert, petites, sont groupées en ombelles de 2 à 4 fleurs. Le fruit est composé de deux méricarpes à 4 ailes étroites,. 
+C'est une espèce dioïque. La plante fleurit à la fin du printemps et de l'été.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Bolax gummifera comprend, à la pointe sud de l'Amérique du Sud, les provinces de Santa Cruz et la Terre de Feu et les îles antarctiques (Argentine), la région de Magallanes (Chili), ainsi que les  îles Malouines[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Bolax gummifera comprend, à la pointe sud de l'Amérique du Sud, les provinces de Santa Cruz et la Terre de Feu et les îles antarctiques (Argentine), la région de Magallanes (Chili), ainsi que les  îles Malouines.
 La plante se rencontre dans les prairies et pierriers, du niveau de la mer à 3 500 mètres d'altitude.
-Les coussins atteignent de grandes dimensions, ce qui en fait l’une des espèces ayant la couverture la plus étendue dans la région alpine andine[2].
+Les coussins atteignent de grandes dimensions, ce qui en fait l’une des espèces ayant la couverture la plus étendue dans la région alpine andine.
 </t>
         </is>
       </c>
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon  The Plant List            (22 avril 2019)[4]  :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon  The Plant List            (22 avril 2019)  :
 Azorella caespitosa Vahl
 Azorella glebaria A.Gray
 Azorella triscuspidata Lam.
@@ -646,11 +669,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolax gummifera est récoltée à l'état sauvage pour des utilisations médicinales et parfois alimentaires.
-Une oléo-résine odorante est obtenue à partir d’incisions pratiquées à la base de la tige principale. Elle aurait des propriétés antispasmodiques et désobstruantes[3].
-La plante, à croissance lente, qui peut constituer des tapis denses recouvrant le sol, est aussi cultivée comme plante ornementale couvre-sol[3]. 
+Une oléo-résine odorante est obtenue à partir d’incisions pratiquées à la base de la tige principale. Elle aurait des propriétés antispasmodiques et désobstruantes.
+La plante, à croissance lente, qui peut constituer des tapis denses recouvrant le sol, est aussi cultivée comme plante ornementale couvre-sol. 
 </t>
         </is>
       </c>
